--- a/Chithara.xlsx
+++ b/Chithara.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,6 +443,101 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Chithara</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Is</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Great</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>!</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Chithara</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Is</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Great</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>!</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Chithara</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Is</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Great</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>!</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chithara</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Is</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Great</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>!</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>End!</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Chithara.xlsx
+++ b/Chithara.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,118 +427,22 @@
           <t>Chithara</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Is</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Great</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>!</t>
-        </is>
-      </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Chithara</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Is</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Great</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>!</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Chithara</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Is</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Great</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>!</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Chithara</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Is</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Great</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>!</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Chithara</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Is</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Great</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>!</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>End!</t>
-        </is>
-      </c>
-    </row>
+    <row r="2"/>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5"/>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10"/>
+    <row r="11"/>
+    <row r="12"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D12"/>
+  </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>